--- a/F5HV4G_0316/F5HV4G6fel.xlsx
+++ b/F5HV4G_0316/F5HV4G6fel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irobo\OSGyak\F5HV4GOsGyak\F5HV4G_0316\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AEA117-21AA-4213-8E49-C10B95BE93E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B3FCA0-9AF5-4C8C-A5DF-E0661DBAF457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2E50B39D-D33F-484A-8FEB-65B061AA260A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="17">
   <si>
     <t>FCFS</t>
   </si>
@@ -83,6 +83,9 @@
   <si>
     <t>Várakozó Processz</t>
   </si>
+  <si>
+    <t>RR:10ms</t>
+  </si>
 </sst>
 </file>
 
@@ -105,12 +108,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -263,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -280,6 +295,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B187EC6-B50D-485C-9675-605F4EB0030E}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:BW45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="N23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BP45" sqref="BP45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,6 +625,7 @@
     <col min="7" max="7" width="16.21875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="15" max="75" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -874,8 +895,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -898,7 +919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
@@ -921,7 +942,7 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>4</v>
       </c>
@@ -944,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
@@ -961,12 +982,12 @@
         <v>10</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" ref="F20:F23" si="0">D21-B21</f>
+        <f t="shared" ref="F21:F23" si="0">D21-B21</f>
         <v>5</v>
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>6</v>
       </c>
@@ -990,7 +1011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>7</v>
       </c>
@@ -1011,6 +1032,927 @@
         <v>3</v>
       </c>
       <c r="G23" s="6"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="16">
+        <v>0</v>
+      </c>
+      <c r="C28" s="16">
+        <v>8</v>
+      </c>
+      <c r="D28" s="16">
+        <v>12</v>
+      </c>
+      <c r="E28" s="16">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0</v>
+      </c>
+      <c r="I28" s="16">
+        <v>8</v>
+      </c>
+      <c r="J28" s="16">
+        <v>12</v>
+      </c>
+      <c r="K28" s="16">
+        <v>20</v>
+      </c>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="16">
+        <v>15</v>
+      </c>
+      <c r="C29" s="16">
+        <v>7</v>
+      </c>
+      <c r="D29" s="16">
+        <v>26</v>
+      </c>
+      <c r="E29" s="16">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="16">
+        <v>15</v>
+      </c>
+      <c r="I29" s="16">
+        <v>7</v>
+      </c>
+      <c r="J29" s="16">
+        <v>26</v>
+      </c>
+      <c r="K29" s="16">
+        <v>10</v>
+      </c>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="16">
+        <v>0</v>
+      </c>
+      <c r="C30" s="16">
+        <v>15</v>
+      </c>
+      <c r="D30" s="16">
+        <v>22</v>
+      </c>
+      <c r="E30" s="16">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <v>15</v>
+      </c>
+      <c r="J30" s="16">
+        <v>32</v>
+      </c>
+      <c r="K30" s="16">
+        <v>22</v>
+      </c>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="16">
+        <v>15</v>
+      </c>
+      <c r="C31" s="16">
+        <v>22</v>
+      </c>
+      <c r="D31" s="16">
+        <v>48</v>
+      </c>
+      <c r="E31" s="16">
+        <v>58</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="16">
+        <v>15</v>
+      </c>
+      <c r="I31" s="16">
+        <v>22</v>
+      </c>
+      <c r="J31" s="16">
+        <v>58</v>
+      </c>
+      <c r="K31" s="16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="16">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
+        <v>7</v>
+      </c>
+      <c r="D32" s="16">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="16">
+        <v>0</v>
+      </c>
+      <c r="I32" s="16">
+        <v>7</v>
+      </c>
+      <c r="J32" s="16">
+        <v>20</v>
+      </c>
+      <c r="K32" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="12:75" x14ac:dyDescent="0.3">
+      <c r="L35" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+      <c r="R35">
+        <v>4</v>
+      </c>
+      <c r="S35">
+        <v>5</v>
+      </c>
+      <c r="T35">
+        <v>6</v>
+      </c>
+      <c r="U35">
+        <v>7</v>
+      </c>
+      <c r="V35">
+        <v>8</v>
+      </c>
+      <c r="W35">
+        <v>9</v>
+      </c>
+      <c r="X35">
+        <v>10</v>
+      </c>
+      <c r="Y35">
+        <v>11</v>
+      </c>
+      <c r="Z35">
+        <v>12</v>
+      </c>
+      <c r="AA35">
+        <v>13</v>
+      </c>
+      <c r="AB35">
+        <v>14</v>
+      </c>
+      <c r="AC35">
+        <v>15</v>
+      </c>
+      <c r="AD35">
+        <v>16</v>
+      </c>
+      <c r="AE35">
+        <v>17</v>
+      </c>
+      <c r="AF35">
+        <v>18</v>
+      </c>
+      <c r="AG35">
+        <v>19</v>
+      </c>
+      <c r="AH35">
+        <v>20</v>
+      </c>
+      <c r="AI35">
+        <v>21</v>
+      </c>
+      <c r="AJ35">
+        <v>22</v>
+      </c>
+      <c r="AK35">
+        <v>23</v>
+      </c>
+      <c r="AL35">
+        <v>24</v>
+      </c>
+      <c r="AM35">
+        <v>25</v>
+      </c>
+      <c r="AN35">
+        <v>26</v>
+      </c>
+      <c r="AO35">
+        <v>27</v>
+      </c>
+      <c r="AP35">
+        <v>28</v>
+      </c>
+      <c r="AQ35">
+        <v>29</v>
+      </c>
+      <c r="AR35">
+        <v>30</v>
+      </c>
+      <c r="AS35">
+        <v>31</v>
+      </c>
+      <c r="AT35">
+        <v>32</v>
+      </c>
+      <c r="AU35">
+        <v>33</v>
+      </c>
+      <c r="AV35">
+        <v>34</v>
+      </c>
+      <c r="AW35">
+        <v>35</v>
+      </c>
+      <c r="AX35">
+        <v>36</v>
+      </c>
+      <c r="AY35">
+        <v>37</v>
+      </c>
+      <c r="AZ35">
+        <v>38</v>
+      </c>
+      <c r="BA35">
+        <v>39</v>
+      </c>
+      <c r="BB35">
+        <v>40</v>
+      </c>
+      <c r="BC35">
+        <v>41</v>
+      </c>
+      <c r="BD35">
+        <v>42</v>
+      </c>
+      <c r="BE35">
+        <v>43</v>
+      </c>
+      <c r="BF35">
+        <v>44</v>
+      </c>
+      <c r="BG35">
+        <v>45</v>
+      </c>
+      <c r="BH35">
+        <v>46</v>
+      </c>
+      <c r="BI35">
+        <v>47</v>
+      </c>
+      <c r="BJ35">
+        <v>48</v>
+      </c>
+      <c r="BK35">
+        <v>49</v>
+      </c>
+      <c r="BL35">
+        <v>50</v>
+      </c>
+      <c r="BM35">
+        <v>51</v>
+      </c>
+      <c r="BN35">
+        <v>52</v>
+      </c>
+      <c r="BO35">
+        <v>53</v>
+      </c>
+      <c r="BP35">
+        <v>54</v>
+      </c>
+      <c r="BQ35">
+        <v>55</v>
+      </c>
+      <c r="BR35">
+        <v>56</v>
+      </c>
+      <c r="BS35">
+        <v>57</v>
+      </c>
+      <c r="BT35">
+        <v>58</v>
+      </c>
+      <c r="BU35">
+        <v>59</v>
+      </c>
+      <c r="BV35">
+        <v>60</v>
+      </c>
+      <c r="BW35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="12:75" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>15</v>
+      </c>
+      <c r="N36" t="s">
+        <v>3</v>
+      </c>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17">
+        <v>10</v>
+      </c>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="12:75" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>8</v>
+      </c>
+      <c r="M37">
+        <v>7</v>
+      </c>
+      <c r="N37" t="s">
+        <v>4</v>
+      </c>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="12:75" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>12</v>
+      </c>
+      <c r="M38">
+        <v>26</v>
+      </c>
+      <c r="N38" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="18"/>
+      <c r="AI38" s="18"/>
+      <c r="AJ38" s="18"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="17"/>
+      <c r="AM38" s="17"/>
+      <c r="AN38" s="17"/>
+      <c r="AO38" s="17"/>
+      <c r="AP38" s="17"/>
+      <c r="AQ38" s="17"/>
+      <c r="AR38" s="17"/>
+      <c r="AS38" s="17"/>
+      <c r="AT38" s="17">
+        <v>10</v>
+      </c>
+      <c r="AU38" s="18"/>
+      <c r="AV38" s="18"/>
+      <c r="AW38" s="18"/>
+      <c r="AX38" s="18"/>
+      <c r="AY38" s="18"/>
+      <c r="AZ38" s="18"/>
+      <c r="BA38" s="18"/>
+      <c r="BB38" s="18"/>
+      <c r="BC38" s="18"/>
+      <c r="BD38" s="18"/>
+      <c r="BE38" s="17"/>
+      <c r="BF38" s="17"/>
+      <c r="BG38" s="17"/>
+      <c r="BH38" s="17"/>
+      <c r="BI38" s="17"/>
+      <c r="BJ38" s="17"/>
+      <c r="BK38" s="17"/>
+      <c r="BL38" s="17"/>
+      <c r="BM38" s="17"/>
+      <c r="BN38" s="17">
+        <v>10</v>
+      </c>
+      <c r="BO38" s="17"/>
+      <c r="BP38" s="17"/>
+      <c r="BQ38" s="17"/>
+      <c r="BR38" s="17"/>
+      <c r="BS38" s="17"/>
+      <c r="BT38" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="12:75" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>20</v>
+      </c>
+      <c r="M39">
+        <v>10</v>
+      </c>
+      <c r="N39" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH39" s="18"/>
+      <c r="AI39" s="18"/>
+      <c r="AJ39" s="18"/>
+      <c r="AK39" s="18"/>
+      <c r="AL39" s="18"/>
+      <c r="AM39" s="18"/>
+      <c r="AN39" s="18"/>
+      <c r="AO39" s="18"/>
+      <c r="AP39" s="18"/>
+      <c r="AQ39" s="18"/>
+      <c r="AR39" s="18"/>
+      <c r="AS39" s="18"/>
+      <c r="AT39" s="18"/>
+      <c r="AU39" s="17"/>
+      <c r="AV39" s="17"/>
+      <c r="AW39" s="17"/>
+      <c r="AX39" s="17"/>
+      <c r="AY39" s="17"/>
+      <c r="AZ39" s="17"/>
+      <c r="BA39" s="17"/>
+      <c r="BB39" s="17"/>
+      <c r="BC39" s="17"/>
+      <c r="BD39" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="12:75" x14ac:dyDescent="0.3">
+      <c r="L41" t="s">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41">
+        <v>4</v>
+      </c>
+      <c r="S41">
+        <v>5</v>
+      </c>
+      <c r="T41">
+        <v>6</v>
+      </c>
+      <c r="U41">
+        <v>7</v>
+      </c>
+      <c r="V41">
+        <v>8</v>
+      </c>
+      <c r="W41">
+        <v>9</v>
+      </c>
+      <c r="X41">
+        <v>10</v>
+      </c>
+      <c r="Y41">
+        <v>11</v>
+      </c>
+      <c r="Z41">
+        <v>12</v>
+      </c>
+      <c r="AA41">
+        <v>13</v>
+      </c>
+      <c r="AB41">
+        <v>14</v>
+      </c>
+      <c r="AC41">
+        <v>15</v>
+      </c>
+      <c r="AD41">
+        <v>16</v>
+      </c>
+      <c r="AE41">
+        <v>17</v>
+      </c>
+      <c r="AF41">
+        <v>18</v>
+      </c>
+      <c r="AG41">
+        <v>19</v>
+      </c>
+      <c r="AH41">
+        <v>20</v>
+      </c>
+      <c r="AI41">
+        <v>21</v>
+      </c>
+      <c r="AJ41">
+        <v>22</v>
+      </c>
+      <c r="AK41">
+        <v>23</v>
+      </c>
+      <c r="AL41">
+        <v>24</v>
+      </c>
+      <c r="AM41">
+        <v>25</v>
+      </c>
+      <c r="AN41">
+        <v>26</v>
+      </c>
+      <c r="AO41">
+        <v>27</v>
+      </c>
+      <c r="AP41">
+        <v>28</v>
+      </c>
+      <c r="AQ41">
+        <v>29</v>
+      </c>
+      <c r="AR41">
+        <v>30</v>
+      </c>
+      <c r="AS41">
+        <v>31</v>
+      </c>
+      <c r="AT41">
+        <v>32</v>
+      </c>
+      <c r="AU41">
+        <v>33</v>
+      </c>
+      <c r="AV41">
+        <v>34</v>
+      </c>
+      <c r="AW41">
+        <v>35</v>
+      </c>
+      <c r="AX41">
+        <v>36</v>
+      </c>
+      <c r="AY41">
+        <v>37</v>
+      </c>
+      <c r="AZ41">
+        <v>38</v>
+      </c>
+      <c r="BA41">
+        <v>39</v>
+      </c>
+      <c r="BB41">
+        <v>40</v>
+      </c>
+      <c r="BC41">
+        <v>41</v>
+      </c>
+      <c r="BD41">
+        <v>42</v>
+      </c>
+      <c r="BE41">
+        <v>43</v>
+      </c>
+      <c r="BF41">
+        <v>44</v>
+      </c>
+      <c r="BG41">
+        <v>45</v>
+      </c>
+      <c r="BH41">
+        <v>46</v>
+      </c>
+      <c r="BI41">
+        <v>47</v>
+      </c>
+      <c r="BJ41">
+        <v>48</v>
+      </c>
+      <c r="BK41">
+        <v>49</v>
+      </c>
+      <c r="BL41">
+        <v>50</v>
+      </c>
+      <c r="BM41">
+        <v>51</v>
+      </c>
+      <c r="BN41">
+        <v>52</v>
+      </c>
+      <c r="BO41">
+        <v>53</v>
+      </c>
+      <c r="BP41">
+        <v>54</v>
+      </c>
+      <c r="BQ41">
+        <v>55</v>
+      </c>
+      <c r="BR41">
+        <v>56</v>
+      </c>
+      <c r="BS41">
+        <v>57</v>
+      </c>
+      <c r="BT41">
+        <v>58</v>
+      </c>
+      <c r="BU41">
+        <v>59</v>
+      </c>
+      <c r="BV41">
+        <v>60</v>
+      </c>
+      <c r="BW41">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="12:75" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>14</v>
+      </c>
+      <c r="N42" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17">
+        <v>10</v>
+      </c>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="17"/>
+      <c r="AJ42" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="12:75" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>8</v>
+      </c>
+      <c r="N43" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="12:75" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>11</v>
+      </c>
+      <c r="M44">
+        <v>36</v>
+      </c>
+      <c r="N44" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18"/>
+      <c r="AA44" s="18"/>
+      <c r="AB44" s="18"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="18"/>
+      <c r="AE44" s="18"/>
+      <c r="AF44" s="18"/>
+      <c r="AG44" s="18"/>
+      <c r="AH44" s="18"/>
+      <c r="AI44" s="18"/>
+      <c r="AJ44" s="18"/>
+      <c r="AK44" s="17"/>
+      <c r="AL44" s="17"/>
+      <c r="AM44" s="17"/>
+      <c r="AN44" s="17"/>
+      <c r="AO44" s="17"/>
+      <c r="AP44" s="17"/>
+      <c r="AQ44" s="17"/>
+      <c r="AR44" s="17"/>
+      <c r="AS44" s="17"/>
+      <c r="AT44" s="17">
+        <v>10</v>
+      </c>
+      <c r="AU44" s="17"/>
+      <c r="AV44" s="17"/>
+      <c r="AW44" s="17"/>
+      <c r="AX44" s="17"/>
+      <c r="AY44" s="17"/>
+      <c r="AZ44" s="17"/>
+      <c r="BA44" s="17"/>
+      <c r="BB44" s="17"/>
+      <c r="BC44" s="17"/>
+      <c r="BD44" s="17">
+        <v>10</v>
+      </c>
+      <c r="BE44" s="17"/>
+      <c r="BF44" s="17"/>
+      <c r="BG44" s="17"/>
+      <c r="BH44" s="17"/>
+      <c r="BI44" s="17"/>
+      <c r="BJ44" s="17"/>
+      <c r="BK44" s="17"/>
+      <c r="BL44" s="17"/>
+      <c r="BM44" s="17"/>
+      <c r="BN44" s="17">
+        <v>10</v>
+      </c>
+      <c r="BO44" s="17"/>
+      <c r="BP44" s="17"/>
+      <c r="BQ44" s="17"/>
+      <c r="BR44" s="17"/>
+      <c r="BS44" s="17"/>
+      <c r="BT44" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="12:75" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>20</v>
+      </c>
+      <c r="M45">
+        <v>10</v>
+      </c>
+      <c r="N45" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH45" s="18"/>
+      <c r="AI45" s="18"/>
+      <c r="AJ45" s="18"/>
+      <c r="AK45" s="18"/>
+      <c r="AL45" s="18"/>
+      <c r="AM45" s="18"/>
+      <c r="AN45" s="18"/>
+      <c r="AO45" s="18"/>
+      <c r="AP45" s="18"/>
+      <c r="AQ45" s="18"/>
+      <c r="AR45" s="18"/>
+      <c r="AS45" s="18"/>
+      <c r="AT45" s="18"/>
+      <c r="AU45" s="17"/>
+      <c r="AV45" s="17"/>
+      <c r="AW45" s="17"/>
+      <c r="AX45" s="17"/>
+      <c r="AY45" s="17"/>
+      <c r="AZ45" s="17"/>
+      <c r="BA45" s="17"/>
+      <c r="BB45" s="17"/>
+      <c r="BC45" s="17"/>
+      <c r="BD45" s="17">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/F5HV4G_0316/F5HV4G6fel.xlsx
+++ b/F5HV4G_0316/F5HV4G6fel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irobo\OSGyak\F5HV4GOsGyak\F5HV4G_0316\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\!programozás\osegyetem\F5HV4GOsGyak\F5HV4G_0316\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B3FCA0-9AF5-4C8C-A5DF-E0661DBAF457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E194C520-9867-4076-A891-270B6C1A6D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2E50B39D-D33F-484A-8FEB-65B061AA260A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E50B39D-D33F-484A-8FEB-65B061AA260A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="17">
   <si>
     <t>FCFS</t>
   </si>
@@ -278,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -300,9 +300,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -318,7 +321,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -616,19 +619,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B187EC6-B50D-485C-9675-605F4EB0030E}">
   <dimension ref="A1:BW45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BP45" sqref="BP45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="15" max="75" width="3.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="15" max="75" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -648,7 +651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
@@ -668,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
@@ -688,7 +691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
@@ -708,7 +711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
@@ -728,7 +731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
@@ -748,7 +751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -757,8 +760,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -781,7 +784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -802,7 +805,7 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>4</v>
       </c>
@@ -823,7 +826,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>5</v>
       </c>
@@ -842,9 +845,11 @@
       <c r="F12" s="5">
         <v>0</v>
       </c>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>6</v>
       </c>
@@ -865,7 +870,7 @@
       </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
@@ -886,7 +891,7 @@
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -895,8 +900,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -919,7 +924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
@@ -942,7 +947,7 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>4</v>
       </c>
@@ -965,7 +970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
@@ -987,7 +992,7 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>6</v>
       </c>
@@ -1011,7 +1016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>7</v>
       </c>
@@ -1033,7 +1038,7 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1074,7 @@
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1105,7 +1110,7 @@
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1141,7 +1146,7 @@
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1177,7 +1182,7 @@
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1209,7 +1214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1241,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="12:75" x14ac:dyDescent="0.3">
+    <row r="35" spans="12:75" x14ac:dyDescent="0.25">
       <c r="L35" t="s">
         <v>1</v>
       </c>
@@ -1435,7 +1440,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="12:75" x14ac:dyDescent="0.3">
+    <row r="36" spans="12:75" x14ac:dyDescent="0.25">
       <c r="L36">
         <v>0</v>
       </c>
@@ -1472,7 +1477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="12:75" x14ac:dyDescent="0.3">
+    <row r="37" spans="12:75" x14ac:dyDescent="0.25">
       <c r="L37">
         <v>8</v>
       </c>
@@ -1495,7 +1500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="12:75" x14ac:dyDescent="0.3">
+    <row r="38" spans="12:75" x14ac:dyDescent="0.25">
       <c r="L38">
         <v>12</v>
       </c>
@@ -1559,7 +1564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="12:75" x14ac:dyDescent="0.3">
+    <row r="39" spans="12:75" x14ac:dyDescent="0.25">
       <c r="L39">
         <v>20</v>
       </c>
@@ -1595,7 +1600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="12:75" x14ac:dyDescent="0.3">
+    <row r="41" spans="12:75" x14ac:dyDescent="0.25">
       <c r="L41" t="s">
         <v>1</v>
       </c>
@@ -1789,7 +1794,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="12:75" x14ac:dyDescent="0.3">
+    <row r="42" spans="12:75" x14ac:dyDescent="0.25">
       <c r="L42">
         <v>0</v>
       </c>
@@ -1826,7 +1831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="12:75" x14ac:dyDescent="0.3">
+    <row r="43" spans="12:75" x14ac:dyDescent="0.25">
       <c r="L43">
         <v>7</v>
       </c>
@@ -1851,7 +1856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="12:75" x14ac:dyDescent="0.3">
+    <row r="44" spans="12:75" x14ac:dyDescent="0.25">
       <c r="L44">
         <v>11</v>
       </c>
@@ -1918,7 +1923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="12:75" x14ac:dyDescent="0.3">
+    <row r="45" spans="12:75" x14ac:dyDescent="0.25">
       <c r="L45">
         <v>20</v>
       </c>
